--- a/evorag_jul30_revision_results.xlsx
+++ b/evorag_jul30_revision_results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="210" windowWidth="20115" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="61">
   <si>
     <t>one rate</t>
   </si>
@@ -127,13 +127,89 @@
   </si>
   <si>
     <t>0.20/1.13</t>
+  </si>
+  <si>
+    <t>0.0097/0.0040</t>
+  </si>
+  <si>
+    <t>0.013/0.0036</t>
+  </si>
+  <si>
+    <t>0.0091/0.0028</t>
+  </si>
+  <si>
+    <t>0.013/0.0030</t>
+  </si>
+  <si>
+    <t>0.014/0.0056</t>
+  </si>
+  <si>
+    <t>0.017/0.0053</t>
+  </si>
+  <si>
+    <t>0.011/0.0060</t>
+  </si>
+  <si>
+    <t>0.015/0.0049</t>
+  </si>
+  <si>
+    <t>0.040/0.0058</t>
+  </si>
+  <si>
+    <t>0.041/0.0068</t>
+  </si>
+  <si>
+    <t>0.021/0.0091</t>
+  </si>
+  <si>
+    <t>0.015/0.0070</t>
+  </si>
+  <si>
+    <t>0.037/0.0087</t>
+  </si>
+  <si>
+    <t>0.064/0.0079</t>
+  </si>
+  <si>
+    <t>0.15/0.0060</t>
+  </si>
+  <si>
+    <t>0.14/0.0097</t>
+  </si>
+  <si>
+    <t>1.16/0.14</t>
+  </si>
+  <si>
+    <t>1.26/0.52</t>
+  </si>
+  <si>
+    <t>0.42/0.82</t>
+  </si>
+  <si>
+    <t>0.20/1.090</t>
+  </si>
+  <si>
+    <t>0.56/0.18</t>
+  </si>
+  <si>
+    <t>4.48/0.27</t>
+  </si>
+  <si>
+    <t>6.82/0.000011</t>
+  </si>
+  <si>
+    <t>6.019/0.50</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +247,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -192,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -222,6 +305,36 @@
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -527,7 +640,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -573,13 +686,13 @@
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="12">
         <v>6.1343450000000002E-3</v>
       </c>
       <c r="C3" s="4">
         <v>-34.898770904000003</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="15">
         <v>1.752217E-2</v>
       </c>
       <c r="E3" s="4">
@@ -593,13 +706,13 @@
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="4">
         <v>-40.198189999999997</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -613,13 +726,13 @@
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="12">
         <v>6.6056769999999999E-3</v>
       </c>
       <c r="C5" s="4">
         <v>-33.038452216000003</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="15">
         <v>3.9018589999999999E-2</v>
       </c>
       <c r="E5" s="4">
@@ -636,13 +749,13 @@
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="4">
         <v>-43.109740000000002</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="15" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -657,9 +770,9 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="D7" s="16"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
@@ -667,9 +780,9 @@
       <c r="A8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="D8" s="16"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
@@ -677,13 +790,13 @@
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="12">
         <v>5.2719280000000004E-3</v>
       </c>
       <c r="C9" s="4">
         <v>-42.322613955000001</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="15">
         <v>1.266311E-2</v>
       </c>
       <c r="E9" s="4">
@@ -697,13 +810,13 @@
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="4">
         <v>-50.825670000000002</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="15" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -717,16 +830,16 @@
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="12">
         <v>6.1070669999999999E-3</v>
       </c>
       <c r="C11" s="4">
         <v>-41.822704723000001</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="15">
         <v>1.2848995E-2</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="15">
         <v>5.1066180000000003E-3</v>
       </c>
       <c r="F11" s="4">
@@ -737,13 +850,13 @@
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="7">
         <v>-55.3</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="17" t="s">
         <v>35</v>
       </c>
       <c r="E12" s="10" t="s">
@@ -755,9 +868,9 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="8"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
     </row>
@@ -765,9 +878,9 @@
       <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
     </row>
@@ -775,13 +888,13 @@
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="12">
         <v>8.6828419999999996E-3</v>
       </c>
       <c r="C15" s="4">
         <v>-17.873946134000001</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="15">
         <v>1.9910029999999999E-2</v>
       </c>
       <c r="E15" s="4">
@@ -795,13 +908,13 @@
       <c r="A16" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="4">
         <v>-23.639109999999999</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="15" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="4" t="s">
@@ -815,13 +928,13 @@
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="12">
         <v>7.8984269999999995E-3</v>
       </c>
       <c r="C17" s="4">
         <v>-16.013241754999999</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="15">
         <v>3.7284459999999998E-2</v>
       </c>
       <c r="E17" s="4">
@@ -835,13 +948,13 @@
       <c r="A18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="4">
         <v>-24.09309</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="15" t="s">
         <v>24</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -853,9 +966,9 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="D19" s="16"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
@@ -863,9 +976,9 @@
       <c r="A20" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="D20" s="16"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
@@ -873,13 +986,13 @@
       <c r="A21" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="12">
         <v>7.7785490000000001E-3</v>
       </c>
       <c r="C21" s="4">
         <v>-23.262915120999999</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="15">
         <v>2.1326009999999999E-2</v>
       </c>
       <c r="E21" s="4">
@@ -893,13 +1006,13 @@
       <c r="A22" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C22" s="4">
         <v>-26.219830000000002</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="15" t="s">
         <v>29</v>
       </c>
       <c r="E22" s="4" t="s">
@@ -913,13 +1026,13 @@
       <c r="A23" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="12">
         <v>8.596266E-3</v>
       </c>
       <c r="C23" s="4">
         <v>-21.828297394</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="15">
         <v>0.17017199999999999</v>
       </c>
       <c r="E23" s="4">
@@ -933,13 +1046,13 @@
       <c r="A24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="4">
         <v>-31.593810000000001</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="15" t="s">
         <v>30</v>
       </c>
       <c r="E24" s="4" t="s">
@@ -957,13 +1070,434 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="46" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="20">
+        <v>6.3682740000000002E-3</v>
+      </c>
+      <c r="C3" s="18">
+        <v>-32.075707239000003</v>
+      </c>
+      <c r="D3" s="21">
+        <v>1.6109869999999998E-2</v>
+      </c>
+      <c r="E3" s="18">
+        <v>0.52198339000000005</v>
+      </c>
+      <c r="F3" s="18">
+        <v>-38.725115080000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="18">
+        <v>-36.504489999999997</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="18">
+        <v>-42.787770000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="20">
+        <v>6.9135940000000003E-3</v>
+      </c>
+      <c r="C5" s="18">
+        <v>-30.243237036</v>
+      </c>
+      <c r="D5" s="21">
+        <v>3.5124049999999997E-2</v>
+      </c>
+      <c r="E5" s="18">
+        <v>2.4526081199999998</v>
+      </c>
+      <c r="F5" s="18">
+        <v>-39.941072630000001</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="18">
+        <v>-39.50273</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="18">
+        <v>-46.151179999999997</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="20">
+        <v>5.4113479999999999E-3</v>
+      </c>
+      <c r="C9" s="18">
+        <v>-39.565887697000001</v>
+      </c>
+      <c r="D9" s="21">
+        <v>1.258302E-2</v>
+      </c>
+      <c r="E9" s="18">
+        <v>0.46116747000000002</v>
+      </c>
+      <c r="F9" s="18">
+        <v>-46.124405359999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="18">
+        <v>-47.524859999999997</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="18">
+        <v>-56.170380000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="20">
+        <v>6.3107019999999996E-3</v>
+      </c>
+      <c r="C11" s="18">
+        <v>-39.164390515999997</v>
+      </c>
+      <c r="D11" s="21">
+        <v>1.2715275999999999E-2</v>
+      </c>
+      <c r="E11" s="18">
+        <v>0.48941343599999998</v>
+      </c>
+      <c r="F11" s="18">
+        <v>-43.851481884999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="18">
+        <v>-52.077159999999999</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="19">
+        <v>-61.008940000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="20">
+        <v>9.0625830000000008E-3</v>
+      </c>
+      <c r="C15" s="18">
+        <v>-15.845733138</v>
+      </c>
+      <c r="D15" s="21">
+        <v>1.8793890000000001E-2</v>
+      </c>
+      <c r="E15" s="18">
+        <v>0.36141351999999999</v>
+      </c>
+      <c r="F15" s="18">
+        <v>-20.367854040000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="18">
+        <v>-20.618010000000002</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="18">
+        <v>-24.763439999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="20">
+        <v>8.2731019999999992E-3</v>
+      </c>
+      <c r="C17" s="18">
+        <v>-13.922856728999999</v>
+      </c>
+      <c r="D17" s="21">
+        <v>3.0648829999999998E-2</v>
+      </c>
+      <c r="E17" s="18">
+        <v>1.5071588899999999</v>
+      </c>
+      <c r="F17" s="18">
+        <v>-23.442700980000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="18">
+        <v>-21.112459999999999</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="19">
+        <v>-28.20345</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="20">
+        <v>8.1117410000000004E-3</v>
+      </c>
+      <c r="C21" s="18">
+        <v>-20.944446304</v>
+      </c>
+      <c r="D21" s="21">
+        <v>1.8403539999999999E-2</v>
+      </c>
+      <c r="E21" s="18">
+        <v>0.41903738000000001</v>
+      </c>
+      <c r="F21" s="18">
+        <v>-25.68357628</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="18">
+        <v>-23.162459999999999</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="18">
+        <v>-36.084650000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="20">
+        <v>9.0426599999999992E-3</v>
+      </c>
+      <c r="C23" s="18">
+        <v>-19.543691922000001</v>
+      </c>
+      <c r="D23" s="21">
+        <v>0.16051779999999999</v>
+      </c>
+      <c r="E23" s="18">
+        <v>10.155678200000001</v>
+      </c>
+      <c r="F23" s="18">
+        <v>-28.8311031</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="18">
+        <v>-28.679179999999999</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="19">
+        <v>-40.184179999999998</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/evorag_jul30_revision_results.xlsx
+++ b/evorag_jul30_revision_results.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="210" windowWidth="20115" windowHeight="7935"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="main paper" sheetId="1" r:id="rId1"/>
+    <sheet name="correcting pdist" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
@@ -206,8 +206,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -306,22 +306,22 @@
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -330,10 +330,10 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -640,7 +640,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1073,7 +1073,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="A2" sqref="A2:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/evorag_jul30_revision_results.xlsx
+++ b/evorag_jul30_revision_results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="73">
   <si>
     <t>one rate</t>
   </si>
@@ -199,6 +199,42 @@
   </si>
   <si>
     <t>6.019/0.50</t>
+  </si>
+  <si>
+    <t>0.042/ 0.0081</t>
+  </si>
+  <si>
+    <t>0.015/ 0.0073</t>
+  </si>
+  <si>
+    <t>0.49/0.0091</t>
+  </si>
+  <si>
+    <t>0.78/0.0016</t>
+  </si>
+  <si>
+    <t>0.00047/0.51</t>
+  </si>
+  <si>
+    <t>2.48/0.0087</t>
+  </si>
+  <si>
+    <t>0.00040/0.00025</t>
+  </si>
+  <si>
+    <t>beta_slope_original</t>
+  </si>
+  <si>
+    <t>beta_slope_ci</t>
+  </si>
+  <si>
+    <t>ci parallel</t>
+  </si>
+  <si>
+    <t>ci perpendicular</t>
+  </si>
+  <si>
+    <t>*why are the slopes always so different!</t>
   </si>
 </sst>
 </file>
@@ -255,12 +291,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -275,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -335,6 +377,15 @@
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -637,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -649,12 +700,18 @@
     <col min="2" max="2" width="16.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>5</v>
@@ -666,13 +723,27 @@
         <v>5</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="23"/>
+      <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -681,8 +752,14 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -695,14 +772,20 @@
       <c r="D3" s="15">
         <v>1.752217E-2</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="4">
         <v>0.61845963999999998</v>
       </c>
-      <c r="F3" s="4">
+      <c r="L3" s="4">
         <v>-43.172915609999997</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -715,14 +798,20 @@
       <c r="D4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="4">
+      <c r="L4" s="4">
         <v>-47.264270000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -735,17 +824,23 @@
       <c r="D5" s="15">
         <v>3.9018589999999999E-2</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="4">
         <v>2.8981885300000001</v>
       </c>
-      <c r="F5" s="4">
+      <c r="L5" s="4">
         <v>-45.196524449999998</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -758,35 +853,67 @@
       <c r="D6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="15">
+        <v>-4.3221059999999999E-2</v>
+      </c>
+      <c r="H6" s="15">
+        <v>2.8069978799999999</v>
+      </c>
+      <c r="I6" s="15">
+        <v>-6.5618330000000004E-3</v>
+      </c>
+      <c r="J6" s="15">
+        <v>1.6556059999999999</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="6">
+      <c r="L6" s="6">
         <v>-50.989919999999998</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="13"/>
       <c r="C7" s="3"/>
       <c r="D7" s="16"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E7" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="3"/>
       <c r="D8" s="16"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
@@ -799,14 +926,20 @@
       <c r="D9" s="15">
         <v>1.266311E-2</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="4">
         <v>0.47552463</v>
       </c>
-      <c r="F9" s="4">
+      <c r="L9" s="4">
         <v>-49.717818119999997</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
@@ -819,14 +952,20 @@
       <c r="D10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="4">
+      <c r="L10" s="4">
         <v>-59.458150000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
@@ -839,14 +978,20 @@
       <c r="D11" s="15">
         <v>1.2848995E-2</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15">
         <v>5.1066180000000003E-3</v>
       </c>
-      <c r="F11" s="4">
+      <c r="L11" s="4">
         <v>-47.525343417999999</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
@@ -859,32 +1004,62 @@
       <c r="D12" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="17">
+        <v>-3.5789660000000001E-2</v>
+      </c>
+      <c r="H12" s="17">
+        <v>0.77115529999999999</v>
+      </c>
+      <c r="I12" s="22">
+        <v>1.1567610000000001E-2</v>
+      </c>
+      <c r="J12" s="22">
+        <v>1.6567529999999999</v>
+      </c>
+      <c r="K12" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="11">
+      <c r="L12" s="11">
         <v>-63.263150000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="13"/>
       <c r="C13" s="8"/>
       <c r="D13" s="16"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="8"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
@@ -897,14 +1072,20 @@
       <c r="D15" s="15">
         <v>1.9910029999999999E-2</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="4">
         <v>0.42679729999999999</v>
       </c>
-      <c r="F15" s="4">
+      <c r="L15" s="4">
         <v>-23.915106420000001</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>1</v>
       </c>
@@ -917,14 +1098,20 @@
       <c r="D16" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="4">
+      <c r="L16" s="4">
         <v>-28.867570000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
@@ -937,14 +1124,20 @@
       <c r="D17" s="15">
         <v>3.7284459999999998E-2</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="4">
         <v>2.01292165</v>
       </c>
-      <c r="F17" s="4">
+      <c r="L17" s="4">
         <v>-28.20170826</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>3</v>
       </c>
@@ -957,32 +1150,62 @@
       <c r="D18" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="15">
+        <v>-1.898041E-2</v>
+      </c>
+      <c r="H18" s="15">
+        <v>9.1259243899999998</v>
+      </c>
+      <c r="I18" s="15">
+        <v>-1.305713E-2</v>
+      </c>
+      <c r="J18" s="15">
+        <v>3.4697939999999998</v>
+      </c>
+      <c r="K18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="6">
+      <c r="L18" s="6">
         <v>-32.231670000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="13"/>
       <c r="C19" s="3"/>
       <c r="D19" s="16"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="3"/>
       <c r="D20" s="16"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>0</v>
       </c>
@@ -995,14 +1218,20 @@
       <c r="D21" s="15">
         <v>2.1326009999999999E-2</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="4">
         <v>0.55532482999999999</v>
       </c>
-      <c r="F21" s="4">
+      <c r="L21" s="4">
         <v>-29.617832539999998</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>1</v>
       </c>
@@ -1015,14 +1244,20 @@
       <c r="D22" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="4">
+      <c r="L22" s="4">
         <v>-39.309890000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>2</v>
       </c>
@@ -1035,14 +1270,20 @@
       <c r="D23" s="15">
         <v>0.17017199999999999</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="4">
         <v>11.293139200000001</v>
       </c>
-      <c r="F23" s="4">
+      <c r="L23" s="4">
         <v>-33.848720299999997</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1055,14 +1296,36 @@
       <c r="D24" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" s="15">
+        <v>-9.7237190000000001E-2</v>
+      </c>
+      <c r="H24" s="15">
+        <v>4.4269719999999999E-2</v>
+      </c>
+      <c r="I24" s="15">
+        <v>-3.8763980000000003E-2</v>
+      </c>
+      <c r="J24" s="15">
+        <v>4.2274929999999999</v>
+      </c>
+      <c r="K24" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="6">
+      <c r="L24" s="6">
         <v>-44.187800000000003</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/evorag_jul30_revision_results.xlsx
+++ b/evorag_jul30_revision_results.xlsx
@@ -201,12 +201,6 @@
     <t>6.019/0.50</t>
   </si>
   <si>
-    <t>0.042/ 0.0081</t>
-  </si>
-  <si>
-    <t>0.015/ 0.0073</t>
-  </si>
-  <si>
     <t>0.49/0.0091</t>
   </si>
   <si>
@@ -235,6 +229,12 @@
   </si>
   <si>
     <t>*why are the slopes always so different!</t>
+  </si>
+  <si>
+    <t>0.0041/ 0.078</t>
+  </si>
+  <si>
+    <t>-0.01/ 0.095</t>
   </si>
 </sst>
 </file>
@@ -317,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -381,11 +381,14 @@
     <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -691,7 +694,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -723,19 +726,19 @@
         <v>5</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="24"/>
+      <c r="I1" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="J1" s="23"/>
+      <c r="J1" s="24"/>
       <c r="K1" s="3" t="s">
         <v>7</v>
       </c>
@@ -854,10 +857,10 @@
         <v>15</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G6" s="15">
         <v>-4.3221059999999999E-2</v>
@@ -886,8 +889,8 @@
       <c r="B7" s="13"/>
       <c r="C7" s="3"/>
       <c r="D7" s="16"/>
-      <c r="E7" s="24" t="s">
-        <v>72</v>
+      <c r="E7" s="23" t="s">
+        <v>70</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -1004,11 +1007,11 @@
       <c r="D12" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>62</v>
+      <c r="E12" s="25" t="s">
+        <v>72</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G12" s="17">
         <v>-3.5789660000000001E-2</v>
@@ -1151,10 +1154,10 @@
         <v>24</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G18" s="15">
         <v>-1.898041E-2</v>
@@ -1300,7 +1303,7 @@
         <v>30</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G24" s="15">
         <v>-9.7237190000000001E-2</v>
